--- a/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
+++ b/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\05-Introducción a Estructuras de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0874F604-BE2E-4440-9B46-D82D0D56EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82323A11-F541-4179-83E6-52ED1DB07765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estructuras" sheetId="1" r:id="rId1"/>
+    <sheet name="Estructurass" sheetId="2" r:id="rId1"/>
+    <sheet name="Matrices" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
   </si>
@@ -101,6 +102,42 @@
   </si>
   <si>
     <t>JSON</t>
+  </si>
+  <si>
+    <t>Listas</t>
+  </si>
+  <si>
+    <t>Tipos de estructuras</t>
+  </si>
+  <si>
+    <t>Equivalentes</t>
+  </si>
+  <si>
+    <t>Rangos</t>
+  </si>
+  <si>
+    <t>Tuplas</t>
+  </si>
+  <si>
+    <t>Matrices</t>
+  </si>
+  <si>
+    <t>Diccionarios</t>
+  </si>
+  <si>
+    <t>Tablas</t>
+  </si>
+  <si>
+    <t>Caracteriasticas</t>
+  </si>
+  <si>
+    <t>Sus valores son facilmente mutables</t>
+  </si>
+  <si>
+    <t>No se modifican a no ser que entres manualmente en la matriz original para cambiarlos</t>
+  </si>
+  <si>
+    <t>Tienen una estructura clave:valor. Columna : Fila/s.</t>
   </si>
 </sst>
 </file>
@@ -152,7 +189,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -434,11 +471,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9957BD-2E97-45D7-9B92-C3C2C6F6D440}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
+++ b/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\05-Introducción a Estructuras de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82323A11-F541-4179-83E6-52ED1DB07765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C255966-CDC3-4BC7-9635-398D07F62237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Estructurass" sheetId="2" r:id="rId1"/>
+    <sheet name="Estructuras" sheetId="2" r:id="rId1"/>
     <sheet name="Matrices" sheetId="1" r:id="rId2"/>
+    <sheet name="Tablas" sheetId="3" r:id="rId3"/>
+    <sheet name="Tablas vs Rangos" sheetId="4" r:id="rId4"/>
+    <sheet name="Json" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +35,121 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Oscar Ardevol</author>
+  </authors>
+  <commentList>
+    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{08E21B3F-A59C-431E-AF2C-F5C1357AAE50}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Oscar Ardevol:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4. Colas y Pilas
+Definición:
+Cola: Estructura FIFO (First In, First Out), como una fila de personas.
+Pila: Estructura LIFO (Last In, First Out), como una pila de platos.
+Relevancia: Usadas en algoritmos como búsqueda en amplitud (cola) o deshacer acciones (pila).
+En Excel/Sheets:
+Simulación: Usa columnas o rangos para simular la estructura (por ejemplo, A1:A10 como pila, añadiendo/quitando desde A1). Macros/VBA o Apps Script pueden implementar push/pop.
+Limitación: Sin soporte nativo; las operaciones son manuales o programadas.
+Por qué interesarte: Útil para simulaciones de procesos o flujos de trabajo.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Oscar Ardevol</author>
+  </authors>
+  <commentList>
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{A07DCB5F-B508-409A-AB8A-D6858B03BF66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Oscar Ardevol:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Posible lentitud con grandes volúmenes de datos:
+Las tablas en Excel y Sheets son objetos con metadatos (encabezados, formato, filtros) que el programa debe gestionar. Esto añade una sobrecarga computacional, especialmente cuando la tabla tiene miles de filas o columnas.
+En Excel, las tablas se implementan como objetos ListObject, y operaciones como recalcular fórmulas con referencias a Tabla1[Columna] o aplicar filtros en grandes conjuntos pueden ralentizar la hoja, especialmente en archivos con múltiples tablas o cálculos complejos.
+Ejemplo: Una tabla con 10,000 filas y 10 columnas puede tardar más en filtrarse o ordenarse que un rango equivalente, sobre todo si hay fórmulas dependientes.
+En Sheets, el rendimiento también se ve afectado con tablas grandes debido al procesamiento en la nube, aunque es menos notorio que en Excel.
+Factores que afectan:
+Número de filas y columnas.
+Uso de fórmulas dinámicas o referencias a la tabla.
+Activar/desactivar "Actualización automática" (en Excel, opciones de tabla) puede mejorar el rendimiento.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C14" authorId="0" shapeId="0" xr:uid="{EAA31C61-51BC-4AC2-B0CA-89C05D31A349}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Oscar Ardevol:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Detalles sobre rangos
+Más ligeros:
+Un rango de datos es simplemente una referencia a celdas sin metadatos adicionales. Esto lo hace más eficiente en términos de memoria y procesamiento, ya que no hay estructuras de tabla que mantener.
+Las fórmulas que usan rangos (por ejemplo, =SUMA(A1:A10000)) se calculan directamente sin la sobrecarga de gestionar un objeto de tabla, lo que resulta en un mejor rendimiento con grandes volúmenes de datos.
+Ejemplo: Un rango con 10,000 filas en A1:A10000 se calcula más rápido con =SUMA(A1:A10000) que una tabla equivalente con la misma fórmula.
+Limitaciones:
+La ligereza viene a costa de falta de automatización. Si añades datos, las fórmulas no se ajustan solas, lo que puede requerir recalcular manualmente.
+Menos adecuado para tareas repetitivas o estructuradas a largo plazo.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
   <si>
     <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
   </si>
@@ -138,13 +256,390 @@
   </si>
   <si>
     <t>Tienen una estructura clave:valor. Columna : Fila/s.</t>
+  </si>
+  <si>
+    <t>Mamiferos</t>
+  </si>
+  <si>
+    <t>Insectos</t>
+  </si>
+  <si>
+    <t>Clave 3</t>
+  </si>
+  <si>
+    <t>Clave 4</t>
+  </si>
+  <si>
+    <t>Gato</t>
+  </si>
+  <si>
+    <t>Mantis</t>
+  </si>
+  <si>
+    <t>Valor1</t>
+  </si>
+  <si>
+    <t>Perro</t>
+  </si>
+  <si>
+    <t>Escarabajo</t>
+  </si>
+  <si>
+    <t>Valor2</t>
+  </si>
+  <si>
+    <t>Hormiga</t>
+  </si>
+  <si>
+    <t>Valor3</t>
+  </si>
+  <si>
+    <t>Mi enfoque crea un diccionario multidimensional donde las listas están alineadas por índice, lo cual es una interpretación creativa y funcional.</t>
+  </si>
+  <si>
+    <t>En un diccionario típico, una clave tiene una lista independiente (por ejemplo, "Mamiferos" podría tener solo ["Gato", "Perro", "Leon"] sin relación directa con "Insectos").</t>
+  </si>
+  <si>
+    <t>Un diccionario tendiria a tomar, al escribirlo, la forma de una tabla transpuesta:</t>
+  </si>
+  <si>
+    <t>Tigre</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animales = </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *Consideraciones:</t>
+  </si>
+  <si>
+    <t>El ejemplo puesto al lado del diccionario no puede considerar-se una tabla</t>
+  </si>
+  <si>
+    <t>Los valores de las listas, al ser strings, deberian ir entre comillas (ej: "Gato","Perro").</t>
+  </si>
+  <si>
+    <t>Aspecto</t>
+  </si>
+  <si>
+    <t>Rango de datos cualquiera</t>
+  </si>
+  <si>
+    <t>Definición formal</t>
+  </si>
+  <si>
+    <t>Selección arbitraria de celdas (por ejemplo, A1:C10). No requiere creación especial.</t>
+  </si>
+  <si>
+    <t>Objeto estructurado creado con un comando (Excel: Insertar &gt; Tabla; Sheets: Formato &gt; Tabla de formato).</t>
+  </si>
+  <si>
+    <t>Encabezados</t>
+  </si>
+  <si>
+    <t>No tiene encabezados definidos automáticamente. Puedes usar la primera fila como tal, pero no es obligatorio.</t>
+  </si>
+  <si>
+    <t>Requiere una fila de encabezados (nombres de columna) al crearla, que se usa para referencias y filtros.</t>
+  </si>
+  <si>
+    <t>Referencias en fórmulas</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se refiere por coordenadas (por ejemplo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>=SUMA(A1:A10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>). Si el rango cambia, la fórmula no se ajusta automáticamente.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usa nombres de columna (por ejemplo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>=SUMA(Tabla1[Columna1])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), que se actualizan si la tabla se expande.</t>
+    </r>
+  </si>
+  <si>
+    <t>Expansión automática</t>
+  </si>
+  <si>
+    <t>No se expande automáticamente. Debes ajustar manualmente el rango en fórmulas si añades datos.</t>
+  </si>
+  <si>
+    <t>Se expande automáticamente cuando añades filas o columnas adyacentes, ajustando referencias dinámicamente.</t>
+  </si>
+  <si>
+    <t>Filtrado y ordenación</t>
+  </si>
+  <si>
+    <t>Requiere aplicar filtros manualmente (Datos &gt; Filtro) cada vez que lo necesites.</t>
+  </si>
+  <si>
+    <t>Incluye filtros y ordenación integrados en los encabezados desde el momento de la creación.</t>
+  </si>
+  <si>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>No tiene formato automático. Debes aplicarlo manualmente (bordes, colores, etc.).</t>
+  </si>
+  <si>
+    <t>Aplica un formato de tabla predefinido (bandas de color, bordes) que se ajusta al añadir datos.</t>
+  </si>
+  <si>
+    <t>Nombres y estructura</t>
+  </si>
+  <si>
+    <t>No tiene un nombre propio ni estructura formal. Es solo una referencia.</t>
+  </si>
+  <si>
+    <t>Tiene un nombre asignado (por ejemplo, "Tabla1") y una estructura definida (columnas con encabezados).</t>
+  </si>
+  <si>
+    <t>Funcionalidades avanzadas</t>
+  </si>
+  <si>
+    <t>Depende de fórmulas o herramientas externas (por ejemplo, segmentación de datos manual).</t>
+  </si>
+  <si>
+    <t>Soporta herramientas como segmentación de datos, totales automáticos y compatibilidad con Power Query (Excel).</t>
+  </si>
+  <si>
+    <t>Uso en cálculos</t>
+  </si>
+  <si>
+    <t>Las fórmulas no reconocen cambios en el rango a menos que se actualicen manualmente.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Las fórmulas con referencias a la tabla (por ejemplo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>Tabla1[Columna1]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) se actualizan automáticamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Portabilidad</t>
+  </si>
+  <si>
+    <t>Fácil de copiar y pegar, pero pierde contexto si se mueve.</t>
+  </si>
+  <si>
+    <t>Mantiene su estructura al copiar/pegar dentro de la misma hoja, pero puede requerir ajustes al moverla.</t>
+  </si>
+  <si>
+    <t>Soporte de scripts</t>
+  </si>
+  <si>
+    <t>Puede usarse en VBA o Apps Script como un rango genérico.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En VBA/Apps Script, se accede como un objeto de tabla con propiedades específicas (por ejemplo, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>ListObject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en Excel).</t>
+    </r>
+  </si>
+  <si>
+    <t>Consideramos que cada columna es una clave y las filas forman listas paralelas indexadas.</t>
+  </si>
+  <si>
+    <t>Esto extiende el concepto de diccionario a un caso donde las claves comparten un índice común (las filas).</t>
+  </si>
+  <si>
+    <r>
+      <t>Gestión de datos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>Son más flexibles para cálculos rápidos o datos no estructurados.</t>
+  </si>
+  <si>
+    <t>Son ideales para bases de datos pequeñas o medianas</t>
+  </si>
+  <si>
+    <t>Pueden ser más lentas con grandes volúmenes de datos debido a su estructura</t>
+  </si>
+  <si>
+    <t>Más ligeros</t>
+  </si>
+  <si>
+    <t>Rendimiento:</t>
+  </si>
+  <si>
+    <t>Compatibilidad:</t>
+  </si>
+  <si>
+    <t>Son específicas de cada hoja de cálculo y pueden no transferirse bien entre programas</t>
+  </si>
+  <si>
+    <t>Son universales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "nombre": "Ana",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "edad": 25,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "hobbies": ["leer", "correr"],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "direccion": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ciudad": "Madrid",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "codigo_postal": "28001"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>hobbies</t>
+  </si>
+  <si>
+    <t>direccion_ciudad</t>
+  </si>
+  <si>
+    <t>direccion_postal</t>
+  </si>
+  <si>
+    <t>Ana</t>
+  </si>
+  <si>
+    <t>["leer", "correr"]</t>
+  </si>
+  <si>
+    <t>leer</t>
+  </si>
+  <si>
+    <t>correr</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Json --&gt; Tabla. Opción 2.</t>
+  </si>
+  <si>
+    <t>Json --&gt; Tabla. Opción 1. Claves a columnas</t>
+  </si>
+  <si>
+    <t>Está estructurado como objetos (pares clave-valor) y arrays, similar a diccionarios y listas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JSON es un formato ligero de intercambio de datos basado en texto. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es ampliamente usado para transmitir datos entre servidores y aplicaciones web. </t>
+  </si>
+  <si>
+    <t>Es común en APIs y bases de datos modernas, y puedes importarlo a Excel/Sheets para análisis.</t>
+  </si>
+  <si>
+    <t>Otros Relevantes</t>
+  </si>
+  <si>
+    <t>Grafos</t>
+  </si>
+  <si>
+    <t>colección de nodos conectados por aristas (por ejemplo, redes sociales o rutas).</t>
+  </si>
+  <si>
+    <t>Colas y Pilas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +647,63 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +722,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,22 +747,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -207,6 +859,80 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571892</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>124157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2BA732B-D33B-96EC-D5A2-794F32741F9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="219075"/>
+          <a:ext cx="2810267" cy="2381582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCB2D1F7-F2B3-4F69-963D-CBD2AF55E374}" name="Animales" displayName="Animales" ref="A1:D4" totalsRowShown="0">
+  <autoFilter ref="A1:D4" xr:uid="{CCB2D1F7-F2B3-4F69-963D-CBD2AF55E374}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{8EF350EB-2A7C-4424-BF51-D673B50ADAE6}" name="Mamiferos"/>
+    <tableColumn id="2" xr3:uid="{44A3FE47-0EBD-41AE-8C8A-818703D92C58}" name="Insectos"/>
+    <tableColumn id="3" xr3:uid="{1671E71D-846F-43E3-B09D-AA5AC3415DD3}" name="Clave 3"/>
+    <tableColumn id="4" xr3:uid="{DE8A042B-967C-453B-BA1E-428D81B9030C}" name="Clave 4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE5F3058-53EB-4EF6-AC74-E1A4F35D71B6}" name="EsquemaTablas" displayName="EsquemaTablas" ref="A1:C15" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C15" xr:uid="{AE5F3058-53EB-4EF6-AC74-E1A4F35D71B6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{F4B3AE64-0121-40F5-BCCF-51193A79405B}" name="Aspecto" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{792422A7-9671-4AF5-BA58-E53BCA171D92}" name="Rango de datos cualquiera" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{4D3101BC-1485-4B42-B2E7-5E486DFE5BA8}" name="Tabla" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,21 +1197,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9957BD-2E97-45D7-9B92-C3C2C6F6D440}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9957BD-2E97-45D7-9B92-C3C2C6F6D440}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -496,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -507,7 +1233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -518,7 +1244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -529,8 +1255,35 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -542,12 +1295,12 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
@@ -557,7 +1310,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -566,7 +1319,7 @@
         <v>Hola</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -590,7 +1343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -608,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15">
       <c r="B5" t="str">
         <v>1</v>
       </c>
@@ -622,27 +1375,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15">
       <c r="B6" t="str">
         <v>b</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15">
       <c r="B7" t="str">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15">
       <c r="B8" t="str">
         <v>c</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15">
       <c r="B9" t="str">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -652,7 +1405,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -660,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="str" cm="1">
         <f t="array" ref="A15:C17">{"a","b","c";"1","2","3";"red","green","blue"}</f>
         <v>a</v>
@@ -672,7 +1425,7 @@
         <v>c</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15">
       <c r="A16" t="str">
         <v>1</v>
       </c>
@@ -683,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" t="str">
         <v>red</v>
       </c>
@@ -694,7 +1447,7 @@
         <v>blue</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -702,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="str" cm="1">
         <f t="array" ref="A21:C23">{"a","1","red";"b","2","green";"c","3","blue"}</f>
         <v>a</v>
@@ -714,7 +1467,7 @@
         <v>red</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" t="str">
         <v>b</v>
       </c>
@@ -725,7 +1478,7 @@
         <v>green</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" t="str">
         <v>c</v>
       </c>
@@ -736,7 +1489,7 @@
         <v>blue</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -744,7 +1497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="str" cm="1">
         <f t="array" ref="A27:D29">{"persona A","gato","","";"persona B","gato","perro","";"persona C","gato","perro","pez"}</f>
         <v>persona A</v>
@@ -759,7 +1512,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" t="str">
         <v>persona B</v>
       </c>
@@ -773,7 +1526,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" t="str">
         <v>persona C</v>
       </c>
@@ -794,4 +1547,594 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{806B2606-4B11-447E-974A-1BE76490EDAE}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27:P38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="16" width="45.28515625" customWidth="1"/>
+    <col min="18" max="20" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1"/>
+    <row r="6" spans="1:4" ht="15" customHeight="1"/>
+    <row r="7" spans="1:4" ht="15" customHeight="1">
+      <c r="A7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1"/>
+    <row r="10" spans="1:4" ht="15" customHeight="1">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1"/>
+    <row r="13" spans="1:4" ht="15" customHeight="1">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1"/>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="str">
+        <f xml:space="preserve"> "''Mamifero'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Mamiferos])&amp;")"</f>
+        <v>''Mamifero'' : (Gato,Perro,Tigre)</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B18" t="str">
+        <f xml:space="preserve"> "''Insectos'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Insectos])&amp;")"</f>
+        <v>''Insectos'' : (Mantis,Escarabajo,Hormiga)</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B19" t="str">
+        <f xml:space="preserve"> "''Clave 3'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Clave 3])&amp;")"</f>
+        <v>''Clave 3'' : (Valor1,Valor2,Valor3)</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" t="str">
+        <f xml:space="preserve"> "''Clave 4'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Clave 4])&amp;")"</f>
+        <v>''Clave 4'' : (Valor1,Valor2,Valor3)</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="B25" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA904AD-8FF2-4D1F-A7B6-F62770BD532C}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="3" width="51.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15" customHeight="1">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" customHeight="1">
+      <c r="A5" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45" customHeight="1">
+      <c r="A6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="45" customHeight="1">
+      <c r="A7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="45" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" customHeight="1">
+      <c r="A9" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="45" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" customHeight="1">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="45" customHeight="1">
+      <c r="A12" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" customHeight="1">
+      <c r="A13" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" customHeight="1"/>
+    <row r="17" ht="15" customHeight="1"/>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1"/>
+    <row r="20" ht="15" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80DDC4A6-1CF9-4D56-B649-799634742C89}">
+  <dimension ref="A2:R20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18">
+      <c r="H2" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="N2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="H3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="5">
+        <v>25</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L4" s="5">
+        <v>28001</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="5">
+        <v>25</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R4" s="5">
+        <v>28001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="5">
+        <v>25</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="5">
+        <v>28001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="E11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="N2:R2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
+++ b/Apuntes/LanguajePrototype/05-Introducción a Estructuras de datos/IntroEstructurasDeDatos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Ardevol\Documents\VSC\Proyectos GitHub\Teoria\Apuntes\LanguajePrototype\05-Introducción a Estructuras de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C255966-CDC3-4BC7-9635-398D07F62237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28B80DC-634C-4D78-B164-D813B12E984E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="123">
   <si>
     <t>Separamos columnas y luego saltamos de fila. "Formato filas".</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>Colas y Pilas</t>
+  </si>
+  <si>
+    <t>Indices en estructuras</t>
   </si>
 </sst>
 </file>
@@ -772,15 +775,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,12 +790,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -1198,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE9957BD-2E97-45D7-9B92-C3C2C6F6D440}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1211,7 +1214,7 @@
     <col min="3" max="3" width="79.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1233,7 +1236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1243,8 +1246,11 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1255,12 +1261,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1268,7 +1274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>121</v>
       </c>
@@ -1292,7 +1298,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1301,14 +1307,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
@@ -1396,14 +1402,14 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
@@ -1666,16 +1672,16 @@
         <f xml:space="preserve"> "''Mamifero'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Mamiferos])&amp;")"</f>
         <v>''Mamifero'' : (Gato,Perro,Tigre)</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1684,16 +1690,16 @@
         <f xml:space="preserve"> "''Insectos'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Insectos])&amp;")"</f>
         <v>''Insectos'' : (Mantis,Escarabajo,Hormiga)</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1702,16 +1708,16 @@
         <f xml:space="preserve"> "''Clave 3'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Clave 3])&amp;")"</f>
         <v>''Clave 3'' : (Valor1,Valor2,Valor3)</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1720,16 +1726,16 @@
         <f xml:space="preserve"> "''Clave 4'' : ("&amp;_xlfn.TEXTJOIN(",",TRUE,Animales[Clave 4])&amp;")"</f>
         <v>''Clave 4'' : (Valor1,Valor2,Valor3)</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="4" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1744,7 +1750,7 @@
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="B25" s="7" t="s">
+      <c r="B25" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1776,153 +1782,153 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" customHeight="1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="45" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="7" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" customHeight="1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="45" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="45" customHeight="1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45" customHeight="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="7" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="45" customHeight="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="45" customHeight="1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>89</v>
       </c>
       <c r="C14" t="s">
@@ -1930,10 +1936,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" customHeight="1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>93</v>
       </c>
       <c r="C15" t="s">
@@ -1972,13 +1978,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
       <c r="N2" s="12" t="s">
         <v>112</v>
       </c>
@@ -1988,34 +1994,34 @@
       <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:18">
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="R3" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2023,34 +2029,34 @@
       <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>25</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <v>28001</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <v>25</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>28001</v>
       </c>
     </row>
@@ -2058,19 +2064,19 @@
       <c r="E5" t="s">
         <v>95</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <v>25</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R5" s="5">
+      <c r="R5" s="4">
         <v>28001</v>
       </c>
     </row>
